--- a/Data/EC/NIT-9003617910.xlsx
+++ b/Data/EC/NIT-9003617910.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA080E5-CAF1-4F80-A9DB-B1B1FB407063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE51B7D-0C92-42A3-9F65-EA8C56A136DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72374513-0F03-41A3-820D-8CF148F23B3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3237F83-7864-4EE3-8235-56CEEBFB5D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,78 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143336943</t>
+  </si>
+  <si>
+    <t>DANILO SANCHEZ PAJARO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>73202066</t>
+  </si>
+  <si>
+    <t>LEONARDO RAFAEL GUZMAN BUELVAS</t>
+  </si>
+  <si>
+    <t>1047382328</t>
+  </si>
+  <si>
+    <t>YOEL WILFRIDO AYALA MIRANDA</t>
+  </si>
+  <si>
+    <t>1047448760</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO BABILONIA OLMOS</t>
+  </si>
+  <si>
     <t>1047481126</t>
   </si>
   <si>
@@ -74,82 +146,16 @@
     <t>1712</t>
   </si>
   <si>
-    <t>1143336943</t>
-  </si>
-  <si>
-    <t>DANILO SANCHEZ PAJARO</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1047448760</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO BABILONIA OLMOS</t>
-  </si>
-  <si>
     <t>73087982</t>
   </si>
   <si>
     <t>AGAPITO DE JESUS BABILONIA ZAMBRANO</t>
   </si>
   <si>
-    <t>1047382328</t>
-  </si>
-  <si>
-    <t>YOEL WILFRIDO AYALA MIRANDA</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>1047461832</t>
   </si>
   <si>
     <t>ROSA MARIA VILLALOBOS HURTADO</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -563,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81628EDF-3F39-A518-CEC7-61E0E87982AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79B667D-7A23-30B6-A2D8-8202139036E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F290374-7791-4746-9B73-8A9E2697B4A9}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4CF4F4-8329-459E-8A7F-838DC5559E0B}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -939,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -984,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1016,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1933750</v>
+        <v>2005144</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1032,14 +1038,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
         <v>17</v>
@@ -1069,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1092,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>28090</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1106,16 +1112,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1129,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1152,16 +1158,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1175,16 +1181,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>30430</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1198,13 +1204,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1221,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1244,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1267,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1290,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1313,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1336,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
@@ -1359,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1382,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1405,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1428,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G31" s="18">
         <v>877803</v>
@@ -1451,16 +1457,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
-        <v>5852</v>
+        <v>1170</v>
       </c>
       <c r="G32" s="18">
         <v>877803</v>
@@ -1474,16 +1480,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1497,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1520,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1543,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1566,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1589,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1612,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1635,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1658,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1681,13 +1687,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1704,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1727,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1750,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1773,13 +1779,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1796,13 +1802,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1819,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>30430</v>
       </c>
       <c r="G48" s="18">
         <v>877803</v>
@@ -1842,13 +1848,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1865,13 +1871,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1888,13 +1894,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1911,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1934,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1957,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -1980,16 +1986,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G55" s="18">
         <v>877803</v>
@@ -2003,19 +2009,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2026,16 +2032,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G57" s="18">
         <v>877803</v>
@@ -2049,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2072,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2095,13 +2101,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2118,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2141,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2164,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2187,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2210,13 +2216,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2233,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2256,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2279,13 +2285,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2302,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2325,16 +2331,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F70" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G70" s="18">
         <v>877803</v>
@@ -2348,16 +2354,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F71" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
         <v>877803</v>
@@ -2367,56 +2373,125 @@
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="24">
-        <v>28090</v>
-      </c>
-      <c r="G72" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
+      <c r="E72" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="18">
+        <v>32771</v>
+      </c>
+      <c r="G72" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G73" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G74" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="24">
+        <v>5852</v>
+      </c>
+      <c r="G75" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003617910.xlsx
+++ b/Data/EC/NIT-9003617910.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE51B7D-0C92-42A3-9F65-EA8C56A136DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3797DB9B-1BF2-45B0-BC03-789C71A60FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3237F83-7864-4EE3-8235-56CEEBFB5D7E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DEA43F8-C059-41F0-8483-94081E8E88A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,91 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047481126</t>
+  </si>
+  <si>
+    <t>ANTONY ZAMBRANO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1143336943</t>
   </si>
   <si>
     <t>DANILO SANCHEZ PAJARO</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1047382328</t>
+  </si>
+  <si>
+    <t>YOEL WILFRIDO AYALA MIRANDA</t>
+  </si>
+  <si>
+    <t>1047448760</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO BABILONIA OLMOS</t>
+  </si>
+  <si>
+    <t>73087982</t>
+  </si>
+  <si>
+    <t>AGAPITO DE JESUS BABILONIA ZAMBRANO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1047461832</t>
+  </si>
+  <si>
+    <t>ROSA MARIA VILLALOBOS HURTADO</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>73202066</t>
-  </si>
-  <si>
-    <t>LEONARDO RAFAEL GUZMAN BUELVAS</t>
-  </si>
-  <si>
-    <t>1047382328</t>
-  </si>
-  <si>
-    <t>YOEL WILFRIDO AYALA MIRANDA</t>
-  </si>
-  <si>
-    <t>1047448760</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO BABILONIA OLMOS</t>
-  </si>
-  <si>
-    <t>1047481126</t>
-  </si>
-  <si>
-    <t>ANTONY ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>73087982</t>
-  </si>
-  <si>
-    <t>AGAPITO DE JESUS BABILONIA ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1047461832</t>
-  </si>
-  <si>
-    <t>ROSA MARIA VILLALOBOS HURTADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79B667D-7A23-30B6-A2D8-8202139036E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312A3C6A-C6BF-7B77-4725-7AE8CDF06456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4CF4F4-8329-459E-8A7F-838DC5559E0B}">
-  <dimension ref="B2:J81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1863CBE-C7EB-4A55-87EA-00303BD55611}">
+  <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -945,7 +939,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +984,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2005144</v>
+        <v>1933750</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,14 +1032,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>17</v>
@@ -1075,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28090</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,16 +1106,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1135,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>30430</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1158,16 +1152,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1181,16 +1175,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1204,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1227,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1250,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1273,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1296,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1319,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1342,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
@@ -1365,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1388,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1411,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1434,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
         <v>877803</v>
@@ -1457,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>1170</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
         <v>877803</v>
@@ -1480,16 +1474,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>28090</v>
+        <v>5852</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1503,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1526,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1549,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1572,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1595,13 +1589,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1618,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1641,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1664,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1687,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1710,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1733,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1756,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1779,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1802,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1825,16 +1819,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F48" s="18">
-        <v>30430</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
         <v>877803</v>
@@ -1848,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1871,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1894,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1917,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1940,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1963,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -1986,16 +1980,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F55" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G55" s="18">
         <v>877803</v>
@@ -2009,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2032,16 +2026,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G57" s="18">
         <v>877803</v>
@@ -2055,13 +2049,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2078,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2101,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2124,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2147,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2170,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2193,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2216,13 +2210,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2239,13 +2233,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2262,13 +2256,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2285,13 +2279,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2308,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2331,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F70" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G70" s="18">
         <v>877803</v>
@@ -2354,16 +2348,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G71" s="18">
         <v>877803</v>
@@ -2373,125 +2367,56 @@
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="B72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="18">
-        <v>32771</v>
-      </c>
-      <c r="G72" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G73" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G74" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="24">
-        <v>5852</v>
-      </c>
-      <c r="G75" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="H80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="32" t="s">
+      <c r="F72" s="24">
+        <v>28090</v>
+      </c>
+      <c r="G72" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="H77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="H78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="H81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003617910.xlsx
+++ b/Data/EC/NIT-9003617910.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3797DB9B-1BF2-45B0-BC03-789C71A60FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164E17AB-54C6-4FBB-AFBF-32D57A35C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DEA43F8-C059-41F0-8483-94081E8E88A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{765F20E3-DF5B-46DE-991D-C404B0EC8F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -263,7 +261,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,29 +457,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,19 +498,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312A3C6A-C6BF-7B77-4725-7AE8CDF06456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A8D117-CD9A-48F8-FB00-3A35E3FBDD7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1863CBE-C7EB-4A55-87EA-00303BD55611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7B2793-73EA-4EEC-AAFF-1E93C6686BAF}">
   <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -937,49 +943,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -987,7 +993,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003617910</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1933750</v>
       </c>
@@ -1088,18 +1094,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>737717</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1111,18 +1117,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>32771</v>
       </c>
-      <c r="G17" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1134,18 +1140,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>30430</v>
       </c>
-      <c r="G18" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1157,18 +1163,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>32771</v>
       </c>
-      <c r="G19" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1180,18 +1186,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>32771</v>
       </c>
-      <c r="G20" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1203,18 +1209,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G21" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1226,18 +1232,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G22" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1249,18 +1255,18 @@
       <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1272,18 +1278,18 @@
       <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1295,18 +1301,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1318,18 +1324,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G26" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G26" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1341,18 +1347,18 @@
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1364,18 +1370,18 @@
       <c r="D28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G28" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1387,18 +1393,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G29" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1410,18 +1416,18 @@
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1433,18 +1439,18 @@
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G31" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1456,18 +1462,18 @@
       <c r="D32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G32" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1479,18 +1485,18 @@
       <c r="D33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>5852</v>
       </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1502,18 +1508,18 @@
       <c r="D34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1525,18 +1531,18 @@
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G35" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1548,18 +1554,18 @@
       <c r="D36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G36" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G36" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1571,18 +1577,18 @@
       <c r="D37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G37" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G37" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1594,18 +1600,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G38" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G38" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1617,18 +1623,18 @@
       <c r="D39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G39" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G39" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1640,18 +1646,18 @@
       <c r="D40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G40" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1663,18 +1669,18 @@
       <c r="D41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G41" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G41" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1686,18 +1692,18 @@
       <c r="D42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G42" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G42" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1709,18 +1715,18 @@
       <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G43" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G43" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1732,18 +1738,18 @@
       <c r="D44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G44" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G44" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1755,18 +1761,18 @@
       <c r="D45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G45" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G45" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1778,18 +1784,18 @@
       <c r="D46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G46" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G46" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1801,18 +1807,18 @@
       <c r="D47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G47" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G47" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1824,18 +1830,18 @@
       <c r="D48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G48" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G48" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1847,18 +1853,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G49" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G49" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1870,18 +1876,18 @@
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G50" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G50" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1893,18 +1899,18 @@
       <c r="D51" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G51" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G51" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1916,18 +1922,18 @@
       <c r="D52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G52" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G52" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1939,18 +1945,18 @@
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G53" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G53" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -1962,18 +1968,18 @@
       <c r="D54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G54" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G54" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -1985,18 +1991,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G55" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G55" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2008,18 +2014,18 @@
       <c r="D56" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G56" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G56" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2031,18 +2037,18 @@
       <c r="D57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G57" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G57" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2054,18 +2060,18 @@
       <c r="D58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G58" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G58" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2077,18 +2083,18 @@
       <c r="D59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G59" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G59" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2100,18 +2106,18 @@
       <c r="D60" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G60" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G60" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2123,18 +2129,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G61" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G61" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2146,18 +2152,18 @@
       <c r="D62" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G62" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G62" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2169,18 +2175,18 @@
       <c r="D63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G63" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G63" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2192,18 +2198,18 @@
       <c r="D64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G64" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G64" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2215,18 +2221,18 @@
       <c r="D65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G65" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G65" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2238,18 +2244,18 @@
       <c r="D66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G66" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G66" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2261,18 +2267,18 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G67" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G67" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2284,18 +2290,18 @@
       <c r="D68" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G68" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G68" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2307,18 +2313,18 @@
       <c r="D69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G69" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G69" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2330,18 +2336,18 @@
       <c r="D70" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>28090</v>
       </c>
-      <c r="G70" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="G70" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2353,47 +2359,47 @@
       <c r="D71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>28090</v>
       </c>
-      <c r="G71" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="G71" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
+      <c r="B72" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="26">
         <v>28090</v>
       </c>
-      <c r="G72" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="G72" s="26">
+        <v>877803</v>
+      </c>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="34"/>
       <c r="H77" s="1" t="s">
         <v>47</v>
       </c>
@@ -2401,10 +2407,10 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="34"/>
       <c r="H78" s="1" t="s">
         <v>48</v>
       </c>
